--- a/rapid-review/report.xlsx
+++ b/rapid-review/report.xlsx
@@ -321,7 +321,7 @@
     <t xml:space="preserve">Most software bankruptcies become apparent during the test period.</t>
   </si>
   <si>
-    <t xml:space="preserve">In the studied cases, the main factor leading to bankruptcy was `misjudgment`, splited between inadequate case study, insufficient fact finding and judgment based on over-optimistic reports; while inexperience of the team members and interferences from other projects did not seem to coorrelate.</t>
+    <t xml:space="preserve">In the studied cases, the main factor leading to bankruptcy was `misjudgment`, splited between inadequate case study, insufficient fact finding and judgment based on over-optimistic reports; while inexperience of the team members and interferences from other projects did not seem to correlate</t>
   </si>
   <si>
     <t xml:space="preserve">Software projects usually fail because of a combination of technical, project management and business decisions factors. High staff turnover is also associated.</t>
@@ -348,7 +348,7 @@
 - rework costs exceeded the value-added work;
 - inadequate planning and specifications led to numerous change requests;
 - cost and schedule overruns.
-These problems all probably stem from inadequate requirements. Rework is usually caused by requirements changes, só excessive rework costs are likely due to problems with the initial requirements. Inadequate planning and specification leading to numerous change requests, is also probably caused by inadequate requirements at the start of the project.</t>
+These problems all probably stem from inadequate requirements. Rework is usually caused by requirements changes, so excessive rework costs are likely due to problems with the initial requirements. Inadequate planning and specification leading to numerous change requests, is also probably caused by inadequate requirements at the start of the project.</t>
   </si>
   <si>
     <t xml:space="preserve">Common causes of failure are:
@@ -369,7 +369,7 @@
   </si>
   <si>
     <t xml:space="preserve">Overall the most frequent factors for failure were:
-- the delivery date impacted the development process (93% ofthe failed projects);
+- the delivery date impacted the development process (93% of the failed projects);
 - the project was underestimated (81%);
 - risks were not re-assessed, controlled, or managed through the project (76%);
 - staff were not rewarded for working long hours (73%);
@@ -377,7 +377,7 @@
 - staff had an unpleasant experience working on the project (73%).</t>
   </si>
   <si>
-    <t xml:space="preserve">There're countless proposed metrics to asses the complexity of a program, such as:
+    <t xml:space="preserve">There are countless proposed metrics to asses the complexity of a program, such as:
 - number of distinct, or total frequencies, of operators and operands;
 - total programming times;
 - length of the decision tree of a program;
@@ -544,7 +544,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -581,10 +581,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -594,10 +590,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -932,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -944,521 +936,521 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="6" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
+      <c r="A25" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="219.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
+    <row r="28" customFormat="false" ht="195.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
+      <c r="A29" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
+      <c r="A31" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="154.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="n">
+      <c r="A32" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="n">
+      <c r="A33" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="154.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="n">
+      <c r="A34" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="n">
+      <c r="A35" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="n">
+      <c r="A36" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="n">
+      <c r="A37" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="10" t="n">
         <v>36</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="n">
+      <c r="A38" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="n">
+      <c r="A40" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B40" s="11" t="n">
+      <c r="B40" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="n">
+      <c r="A41" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="n">
+      <c r="A42" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B42" s="10" t="n">
         <v>41</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="n">
+      <c r="A43" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="n">
+      <c r="A44" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B44" s="11" t="n">
+      <c r="B44" s="10" t="n">
         <v>43</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="124.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="n">
+      <c r="A45" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="n">
+      <c r="A46" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="113.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="n">
+      <c r="A47" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="10" t="n">
         <v>46</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>103</v>
       </c>
     </row>
